--- a/Excel/chris_s_dynamic_compressor.xlsx
+++ b/Excel/chris_s_dynamic_compressor.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,102 +9,273 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
+  <si>
+    <t>Chris's Dynamic Compressor - Audacity Manual</t>
+  </si>
+  <si>
+    <t>Chris's Dynamic Compressor</t>
+  </si>
+  <si>
+    <t>From Audacity Development Manual</t>
+  </si>
+  <si>
+    <t>Jump to: navigation, search</t>
+  </si>
+  <si>
+    <t>An alternative Free Compressor</t>
+  </si>
+  <si>
+    <t>Chris's dynamic compressor by the late Chris Capel is a popular Nyquist plug-in that tries to even out abrupt changes of volume by employing "lookahead" (this attempts to anticipate volume changes by starting to apply compression before the volume rises to the threshold level). There are options to soften the softer audio and invert loudness.</t>
+  </si>
+  <si>
+    <t>Several versions of this plug-in may be downloaded</t>
+  </si>
+  <si>
+    <t>An archived 1.1 version of this plug-in can be downloaded by left-clicking this link, then use the browser feature to save the web page in text format. Right-click and "Save Link As" or "Save Target As" may also work in some browsers. Archived documentation can be found here.</t>
+  </si>
+  <si>
+    <t>A more advanced 1.2.6 version of this plug-in can be downloaded here. You can also listen to an  audio podcast explaining how to use the effect.</t>
+  </si>
+  <si>
+    <t>Neither of the above versions can be modified or redistributed. We hope to make a freely-licensed version of this plug-in available for separate download later, based on Chris's 1.2.7 Beta version which has a free MIT License. For more information, please visit https://forum.audacityteam.org/viewtopic.php?f=42&amp;t=58958 .</t>
+  </si>
+  <si>
+    <t>See instructions for Nyquist plug-in installation in the Audacity Wiki.</t>
+  </si>
+  <si>
+    <t>See this external podcast tutorial on how to use Chris's Dynamic Compressor</t>
+  </si>
+  <si>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <t>Manual Home Page</t>
+  </si>
+  <si>
+    <t>Using Audacity</t>
+  </si>
+  <si>
+    <t>Tour Guide</t>
+  </si>
+  <si>
+    <t>New Features</t>
+  </si>
+  <si>
+    <t>Getting Started</t>
+  </si>
+  <si>
+    <t>Tutorials</t>
+  </si>
+  <si>
+    <t>Tips</t>
+  </si>
+  <si>
+    <t>Audacity GUI</t>
+  </si>
+  <si>
+    <t>Menu Bar</t>
+  </si>
+  <si>
+    <t>Toolbars</t>
+  </si>
+  <si>
+    <t>Tracks</t>
+  </si>
+  <si>
+    <t>Effects</t>
+  </si>
+  <si>
+    <t>Customizing Audacity</t>
+  </si>
+  <si>
+    <t>Preferences</t>
+  </si>
+  <si>
+    <t>Key-bindings</t>
+  </si>
+  <si>
+    <t>Plug-ins</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Digital Audio</t>
+  </si>
+  <si>
+    <t>Glossary</t>
+  </si>
+  <si>
+    <t>All Commands</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>FAQ</t>
+  </si>
+  <si>
+    <t>Useful Links</t>
+  </si>
+  <si>
+    <t>Forum</t>
+  </si>
+  <si>
+    <t>Wiki</t>
+  </si>
+  <si>
+    <t>Latest Release</t>
+  </si>
+  <si>
+    <t>WIT</t>
+  </si>
+  <si>
+    <t>This version created on 2018-09-17 - Check current version of this page (development Manual)</t>
+  </si>
+  <si>
+    <t>ख्रिसचे गतिमान संकुचन - ओड्यासिटी माहिती पुस्तिका</t>
+  </si>
+  <si>
+    <t>ख्रिस चे गतिमान संकुचन</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकास माहिती पुस्तिका वरुन</t>
+  </si>
+  <si>
+    <t>येथे जा: सुचालन , शोध</t>
+  </si>
+  <si>
+    <t>एक पर्यायी नि: शुल्क संकुचन</t>
+  </si>
+  <si>
+    <t>उशीरा ख्रिस कॅपल यांनी ख्रिसचा गतिमान संकुचन एक लोकप्रिय न्यूक्विस्ट प्लग-इन आहे जो " लुकहेड " वापरुन खंडातील अचानक बदल करण्याचा प्रयत्न केला आहे (थ्रेशोल्डच्या पातळीवर चढण्यापूर्वी संकुचन लागू करून आवाज बदलांचा अंदाज लावण्याचा प्रयत्न करतो) . मऊ ध्वनी मऊ करण्यासाठी आणि जोरात उलटण्यासाठी पर्याय आहेत.</t>
+  </si>
+  <si>
+    <t>या प्लग-इनच्या बर्‍याच आवृत्त्या डाउनलोड केल्या जाऊ शकतात</t>
+  </si>
+  <si>
+    <t>या प्लग-इनची संग्रहित 1.1 आवृत्ती या दुव्यावर डावी-क्लिक करून डाउनलोड केली जाऊ शकते , त्यानंतर वेबपृष्ठ मजकूर स्वरूपात जतन करण्यासाठी ब्राउझर वैशिष्ट्याचा वापर करा. उजवे-क्लिक आणि "या रुपात दुवा जतन करा" किंवा "ब्राउझ म्हणून लक्ष्य जतन करा" देखील कदाचित काही ब्राउझरमध्ये कार्य करू शकतात. संग्रहित दस्तऐवजीकरण येथे आढळू शकते .</t>
+  </si>
+  <si>
+    <t>या प्लग-इनची अधिक प्रगत 1.2.6 आवृत्ती येथे डाउनलोड केली जाऊ शकते . आपण प्रभाव कसा वापरावा हे स्पष्ट करणारे ध्वनी पॉडकास्ट देखील ऐकू शकता   .</t>
+  </si>
+  <si>
+    <t>वरीलपैकी कोणतीही आवृत्ती सुधारित किंवा पुनर्वितरित केली जाऊ शकत नाही. आम्ही ख्रिसच्या 1.2.7 बीटा आवृत्तीवर विनामूल्य एमआयटी परवाना असलेल्या वेगळ्या डाउनलोडसाठी नंतर या प्लग-इनची स्वतंत्रपणे परवानाकृत आवृत्ती उपलब्ध करुन देण्याची आशा करतो . अधिक माहितीसाठी, कृपया https://forum.audacityteam.org/viewtopic.php?f=42&amp;t=58958 वर भेट द्या .</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकीमध्ये न्यक्विस्ट(Nyquist) प्लग-इन स्थापनेसाठी सूचना पहा .</t>
+  </si>
+  <si>
+    <t>ख्रिसचे गतिमान संकुचन कसे वापरावे याबद्दलचे</t>
+  </si>
+  <si>
+    <t>हे बाह्य पॉडकास्ट प्रशिक्षण पहा</t>
+  </si>
+  <si>
+    <t>सुचालन</t>
+  </si>
+  <si>
+    <t>माहिती पुस्तिका मुख्यपृष्ठ</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी वापरणे</t>
+  </si>
+  <si>
+    <t>मार्गदर्शन सहल</t>
+  </si>
+  <si>
+    <t>नवीन वैशिष्ट्य</t>
+  </si>
+  <si>
+    <t>प्रारंभ करणे</t>
+  </si>
+  <si>
+    <t>प्रशिक्षण</t>
+  </si>
+  <si>
+    <t>टिपा</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी जीयूआय (GUI)</t>
+  </si>
+  <si>
+    <t>मेनू पट्टी</t>
+  </si>
+  <si>
+    <t>साधनपट्टी</t>
+  </si>
+  <si>
+    <t>गीतपट्टा</t>
+  </si>
+  <si>
+    <t>परिणाम</t>
+  </si>
+  <si>
+    <t>सानुकूलित ओड्यासिटी</t>
+  </si>
+  <si>
+    <t>प्राधान्ये</t>
+  </si>
+  <si>
+    <t>कळ बंधन</t>
+  </si>
+  <si>
+    <t>प्लग-इन्स</t>
+  </si>
+  <si>
+    <t>संदर्भ</t>
+  </si>
+  <si>
+    <t>डिजिटल ध्वनी</t>
+  </si>
+  <si>
+    <t>शब्दकोष</t>
+  </si>
+  <si>
+    <t>सर्व आज्ञा</t>
+  </si>
+  <si>
+    <t>अनुक्रमणिका</t>
+  </si>
+  <si>
+    <t>सामान्य प्रश्न</t>
+  </si>
+  <si>
+    <t>उपयुक्त दुवे</t>
+  </si>
+  <si>
+    <t>मंच</t>
+  </si>
+  <si>
+    <t>विकी</t>
+  </si>
+  <si>
+    <t>नवीनतम प्रकाशन</t>
+  </si>
+  <si>
+    <t>डब्ल्यूआयटी(WIT)</t>
+  </si>
+  <si>
+    <t>ही आवृत्ती 2018-09-17 रोजी तयार केली - या पृष्ठाची सद्य आवृत्ती तपासा (विकास पुस्तिका)</t>
+  </si>
   <si>
     <t>English</t>
   </si>
   <si>
     <t>Marathi</t>
-  </si>
-  <si>
-    <t>Chris's Dynamic Compressor - Audacity Manual</t>
-  </si>
-  <si>
-    <t>Chris's Dynamic Compressor</t>
-  </si>
-  <si>
-    <t>From Audacity Development Manual</t>
-  </si>
-  <si>
-    <t>Jump to: navigation, search</t>
-  </si>
-  <si>
-    <t>An alternative Free Compressor</t>
-  </si>
-  <si>
-    <t>Chris's dynamic compressor by the late Chris Capel is a popular Nyquist plug-in that tries to even out abrupt changes of volume by employing "lookahead" (this attempts to anticipate volume changes by starting to apply compression before the volume rises to the threshold level). There are options to soften the softer audio and invert loudness.</t>
-  </si>
-  <si>
-    <t>Several versions of this plug-in may be downloaded</t>
-  </si>
-  <si>
-    <t>An archived 1.1 version of this plug-in can be downloaded by left-clicking this link, then use the browser feature to save the web page in text format. Right-click and "Save Link As" or "Save Target As" may also work in some browsers. Archived documentation can be found here.</t>
-  </si>
-  <si>
-    <t>A more advanced 1.2.6 version of this plug-in can be downloaded here. You can also listen to an</t>
-  </si>
-  <si>
-    <t>audio podcast explaining how to use the effect.</t>
-  </si>
-  <si>
-    <t>Neither of the above versions can be modified or redistributed. We hope to make a freely-licensed version of this plug-in available for separate download later, based on Chris's 1.2.7 Beta version which has a free MIT License. For more information, please visit https://forum.audacityteam.org/viewtopic.php?f=42&amp;t=58958 .</t>
-  </si>
-  <si>
-    <t>See instructions for Nyquist plug-in installation in the Audacity Wiki.</t>
-  </si>
-  <si>
-    <t>See this external podcast tutorial on how to use Chris's Dynamic Compressor</t>
-  </si>
-  <si>
-    <t>ख्रिसचे डायनॅमिक कॉम्प्रेसर - ऑडसिटी मॅन्युअल</t>
-  </si>
-  <si>
-    <t>ख्रिस चे डायनॅमिक कॉम्प्रेसर</t>
-  </si>
-  <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
-    <t>एक पर्यायी नि: शुल्क कंप्रेसर</t>
-  </si>
-  <si>
-    <t>उशीरा ख्रिस कॅपल यांनी ख्रिसचा डायनॅमिक कॉम्प्रेसर एक लोकप्रिय न्यूक्विस्ट प्लग-इन आहे जो "लुकहेड" वापरुन खंडातील अचानक बदल करण्याचा प्रयत्न केला आहे (थ्रेशोल्डच्या पातळीवर चढण्यापूर्वी कम्प्रेशन लागू करण्यास प्रारंभ करून व्हॉल्यूम बदलांची अपेक्षा करण्याचा प्रयत्न) . मऊ ऑडिओ मऊ करण्यासाठी आणि जोरात उलटण्यासाठी पर्याय आहेत.</t>
-  </si>
-  <si>
-    <t>या प्लग-इनच्या बर्‍याच आवृत्त्या डाउनलोड केल्या जाऊ शकतात</t>
-  </si>
-  <si>
-    <t>या दुव्यावर डावी-क्लिक करून या प्लग-इनची संग्रहित 1.1 आवृत्ती डाऊनलोड केली जाऊ शकते, त्यानंतर वेबपृष्ठ मजकूर स्वरूपात जतन करण्यासाठी ब्राउझर वैशिष्ट्याचा वापर करा. काही ब्राउझरमध्ये राइट-क्लिक आणि "या रूपात दुवा जतन करा" किंवा "लक्ष्य म्हणून जतन करा" देखील कार्य करू शकेल. संग्रहित दस्तऐवजीकरण येथे आढळू शकते.</t>
-  </si>
-  <si>
-    <t>या प्लग-इनची अधिक प्रगत 1.2.6 आवृत्ती येथे डाउनलोड केली जाऊ शकते. आपण एक ऐकू शकता</t>
-  </si>
-  <si>
-    <t>प्रभाव कसा वापरायचा हे सांगणारे ऑडिओ पॉडकास्ट.</t>
-  </si>
-  <si>
-    <t>वरीलपैकी कोणतीही आवृत्ती सुधारित किंवा पुनर्वितरित केली जाऊ शकत नाही. आम्ही ख्रिसच्या 1.2.7 बीटा आवृत्तीवर विनामूल्य एमआयटी परवाना असलेल्या वेगळ्या डाउनलोडसाठी नंतर या प्लग-इनची स्वतंत्रपणे परवानाकृत आवृत्ती उपलब्ध करुन देण्याची आशा करतो. अधिक माहितीसाठी कृपया https://forum.audacityteam.org/viewtopic.php?f=42&amp;t=58958 वर भेट द्या.</t>
-  </si>
-  <si>
-    <t>ऑडसिटी विकीमध्ये न्यक्विस्ट प्लग-इन स्थापनेसाठी सूचना पहा.</t>
-  </si>
-  <si>
-    <t>ख्रिसचे डायनॅमिक कॉम्प्रेसर कसे वापरावे याबद्दलचे हे बाह्य पॉडकास्ट ट्यूटोरियल पहा</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +338,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -245,6 +421,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -279,6 +456,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,162 +632,366 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="89" customWidth="1"/>
+    <col min="2" max="2" width="100.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
